--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GN85"/>
+  <dimension ref="A1:GO85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,6 +1018,9 @@
       </c>
       <c r="GN1" s="1" t="n">
         <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="2">
@@ -1219,6 +1222,7 @@
       <c r="GL2" t="inlineStr"/>
       <c r="GM2" t="inlineStr"/>
       <c r="GN2" t="inlineStr"/>
+      <c r="GO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1419,6 +1423,7 @@
       <c r="GL3" t="inlineStr"/>
       <c r="GM3" t="inlineStr"/>
       <c r="GN3" t="inlineStr"/>
+      <c r="GO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1623,6 +1628,7 @@
       <c r="GL4" t="inlineStr"/>
       <c r="GM4" t="inlineStr"/>
       <c r="GN4" t="inlineStr"/>
+      <c r="GO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1823,6 +1829,7 @@
       <c r="GL5" t="inlineStr"/>
       <c r="GM5" t="inlineStr"/>
       <c r="GN5" t="inlineStr"/>
+      <c r="GO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2041,6 +2048,7 @@
       <c r="GL6" t="inlineStr"/>
       <c r="GM6" t="inlineStr"/>
       <c r="GN6" t="inlineStr"/>
+      <c r="GO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2991,20 +2999,25 @@
       </c>
       <c r="GK7" t="inlineStr">
         <is>
+          <t>32_2023</t>
+        </is>
+      </c>
+      <c r="GL7" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2023 Total</t>
         </is>
       </c>
-      <c r="GL7" t="inlineStr">
+      <c r="GM7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2022 Total</t>
         </is>
       </c>
-      <c r="GM7" t="inlineStr">
+      <c r="GN7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2021 Total</t>
         </is>
       </c>
-      <c r="GN7" t="inlineStr">
+      <c r="GO7" t="inlineStr">
         <is>
           <t>2020 Total</t>
         </is>
@@ -3590,15 +3603,18 @@
         <v>102</v>
       </c>
       <c r="GK8" t="n">
-        <v>3276</v>
+        <v>95</v>
       </c>
       <c r="GL8" t="n">
+        <v>3371</v>
+      </c>
+      <c r="GM8" t="n">
         <v>19039</v>
       </c>
-      <c r="GM8" t="n">
+      <c r="GN8" t="n">
         <v>13781</v>
       </c>
-      <c r="GN8" t="n">
+      <c r="GO8" t="n">
         <v>16598</v>
       </c>
     </row>
@@ -4182,15 +4198,18 @@
         <v>0</v>
       </c>
       <c r="GK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL9" t="n">
         <v>2</v>
       </c>
-      <c r="GL9" t="n">
+      <c r="GM9" t="n">
         <v>19</v>
       </c>
-      <c r="GM9" t="n">
+      <c r="GN9" t="n">
         <v>5</v>
       </c>
-      <c r="GN9" t="n">
+      <c r="GO9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4774,15 +4793,18 @@
         <v>9</v>
       </c>
       <c r="GK10" t="n">
-        <v>378</v>
+        <v>4</v>
       </c>
       <c r="GL10" t="n">
+        <v>382</v>
+      </c>
+      <c r="GM10" t="n">
         <v>746</v>
       </c>
-      <c r="GM10" t="n">
+      <c r="GN10" t="n">
         <v>1132</v>
       </c>
-      <c r="GN10" t="n">
+      <c r="GO10" t="n">
         <v>652</v>
       </c>
     </row>
@@ -5366,15 +5388,18 @@
         <v>0</v>
       </c>
       <c r="GK11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="GL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="GM11" t="n">
         <v>39</v>
       </c>
-      <c r="GM11" t="n">
+      <c r="GN11" t="n">
         <v>36</v>
       </c>
-      <c r="GN11" t="n">
+      <c r="GO11" t="n">
         <v>54</v>
       </c>
     </row>
@@ -5958,15 +5983,18 @@
         <v>11</v>
       </c>
       <c r="GK12" t="n">
-        <v>486</v>
+        <v>12</v>
       </c>
       <c r="GL12" t="n">
+        <v>498</v>
+      </c>
+      <c r="GM12" t="n">
         <v>1060</v>
       </c>
-      <c r="GM12" t="n">
+      <c r="GN12" t="n">
         <v>688</v>
       </c>
-      <c r="GN12" t="n">
+      <c r="GO12" t="n">
         <v>509</v>
       </c>
     </row>
@@ -6553,12 +6581,15 @@
         <v>0</v>
       </c>
       <c r="GL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM13" t="n">
         <v>10</v>
       </c>
-      <c r="GM13" t="n">
+      <c r="GN13" t="n">
         <v>26</v>
       </c>
-      <c r="GN13" t="n">
+      <c r="GO13" t="n">
         <v>11</v>
       </c>
     </row>
@@ -7142,15 +7173,18 @@
         <v>0</v>
       </c>
       <c r="GK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL14" t="n">
         <v>4</v>
       </c>
-      <c r="GL14" t="n">
+      <c r="GM14" t="n">
         <v>14</v>
       </c>
-      <c r="GM14" t="n">
+      <c r="GN14" t="n">
         <v>104</v>
       </c>
-      <c r="GN14" t="n">
+      <c r="GO14" t="n">
         <v>240</v>
       </c>
     </row>
@@ -7740,15 +7774,18 @@
         <v>0</v>
       </c>
       <c r="GK15" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="GL15" t="n">
+        <v>66</v>
+      </c>
+      <c r="GM15" t="n">
         <v>128</v>
       </c>
-      <c r="GM15" t="n">
+      <c r="GN15" t="n">
         <v>241</v>
       </c>
-      <c r="GN15" t="n">
+      <c r="GO15" t="n">
         <v>189</v>
       </c>
     </row>
@@ -8419,12 +8456,15 @@
         <v>0</v>
       </c>
       <c r="GL16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN16" t="n">
         <v>99</v>
       </c>
-      <c r="GN16" t="n">
+      <c r="GO16" t="n">
         <v>61</v>
       </c>
     </row>
@@ -9091,12 +9131,15 @@
         <v>0</v>
       </c>
       <c r="GL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM17" t="n">
         <v>14</v>
       </c>
-      <c r="GM17" t="n">
-        <v>0</v>
-      </c>
       <c r="GN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9766,15 +9809,18 @@
         <v>0</v>
       </c>
       <c r="GK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL18" t="n">
         <v>2</v>
       </c>
-      <c r="GL18" t="n">
-        <v>0</v>
-      </c>
       <c r="GM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN18" t="n">
         <v>656</v>
       </c>
-      <c r="GN18" t="n">
+      <c r="GO18" t="n">
         <v>742</v>
       </c>
     </row>
@@ -10672,12 +10718,10 @@
         <v>7</v>
       </c>
       <c r="GK19" t="n">
-        <v>208</v>
-      </c>
-      <c r="GL19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="GL19" t="n">
+        <v>211</v>
       </c>
       <c r="GM19" t="inlineStr">
         <is>
@@ -10685,6 +10729,11 @@
         </is>
       </c>
       <c r="GN19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11584,12 +11633,10 @@
         <v>2</v>
       </c>
       <c r="GK20" t="n">
-        <v>93</v>
-      </c>
-      <c r="GL20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="GL20" t="n">
+        <v>95</v>
       </c>
       <c r="GM20" t="inlineStr">
         <is>
@@ -11597,6 +11644,11 @@
         </is>
       </c>
       <c r="GN20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12276,15 +12328,18 @@
         <v>10</v>
       </c>
       <c r="GK21" t="n">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="GL21" t="n">
+        <v>228</v>
+      </c>
+      <c r="GM21" t="n">
         <v>352</v>
       </c>
-      <c r="GM21" t="n">
+      <c r="GN21" t="n">
         <v>188</v>
       </c>
-      <c r="GN21" t="n">
+      <c r="GO21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13008,15 +13063,18 @@
         <v>0</v>
       </c>
       <c r="GK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL22" t="n">
         <v>6</v>
       </c>
-      <c r="GL22" t="n">
+      <c r="GM22" t="n">
         <v>13</v>
       </c>
-      <c r="GM22" t="n">
+      <c r="GN22" t="n">
         <v>118</v>
       </c>
-      <c r="GN22" t="inlineStr">
+      <c r="GO22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13725,12 +13783,15 @@
         <v>0</v>
       </c>
       <c r="GL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM23" t="n">
         <v>3</v>
       </c>
-      <c r="GM23" t="n">
+      <c r="GN23" t="n">
         <v>29</v>
       </c>
-      <c r="GN23" t="inlineStr">
+      <c r="GO23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14316,15 +14377,18 @@
         <v>1</v>
       </c>
       <c r="GK24" t="n">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="GL24" t="n">
+        <v>198</v>
+      </c>
+      <c r="GM24" t="n">
         <v>214</v>
       </c>
-      <c r="GM24" t="n">
+      <c r="GN24" t="n">
         <v>155</v>
       </c>
-      <c r="GN24" t="n">
+      <c r="GO24" t="n">
         <v>90</v>
       </c>
     </row>
@@ -14919,6 +14983,9 @@
       <c r="GN25" t="n">
         <v>0</v>
       </c>
+      <c r="GO25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15496,15 +15563,18 @@
         <v>142</v>
       </c>
       <c r="GK26" t="n">
-        <v>4946</v>
+        <v>130</v>
       </c>
       <c r="GL26" t="n">
+        <v>5076</v>
+      </c>
+      <c r="GM26" t="n">
         <v>21652</v>
       </c>
-      <c r="GM26" t="n">
+      <c r="GN26" t="n">
         <v>17258</v>
       </c>
-      <c r="GN26" t="n">
+      <c r="GO26" t="n">
         <v>19164</v>
       </c>
     </row>
@@ -15707,6 +15777,7 @@
       <c r="GL27" t="inlineStr"/>
       <c r="GM27" t="inlineStr"/>
       <c r="GN27" t="inlineStr"/>
+      <c r="GO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -15907,6 +15978,7 @@
       <c r="GL28" t="inlineStr"/>
       <c r="GM28" t="inlineStr"/>
       <c r="GN28" t="inlineStr"/>
+      <c r="GO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -16111,6 +16183,7 @@
       <c r="GL29" t="inlineStr"/>
       <c r="GM29" t="inlineStr"/>
       <c r="GN29" t="inlineStr"/>
+      <c r="GO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -16311,6 +16384,7 @@
       <c r="GL30" t="inlineStr"/>
       <c r="GM30" t="inlineStr"/>
       <c r="GN30" t="inlineStr"/>
+      <c r="GO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -16529,6 +16603,7 @@
       <c r="GL31" t="inlineStr"/>
       <c r="GM31" t="inlineStr"/>
       <c r="GN31" t="inlineStr"/>
+      <c r="GO31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -17479,20 +17554,25 @@
       </c>
       <c r="GK32" t="inlineStr">
         <is>
+          <t>30_2023</t>
+        </is>
+      </c>
+      <c r="GL32" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2023 Total</t>
         </is>
       </c>
-      <c r="GL32" t="inlineStr">
+      <c r="GM32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2022 Total</t>
         </is>
       </c>
-      <c r="GM32" t="inlineStr">
+      <c r="GN32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2021 Total</t>
         </is>
       </c>
-      <c r="GN32" t="inlineStr">
+      <c r="GO32" t="inlineStr">
         <is>
           <t>2020 Total</t>
         </is>
@@ -18078,15 +18158,18 @@
         <v>115</v>
       </c>
       <c r="GK33" t="n">
-        <v>3621</v>
+        <v>113</v>
       </c>
       <c r="GL33" t="n">
+        <v>3734</v>
+      </c>
+      <c r="GM33" t="n">
         <v>21693</v>
       </c>
-      <c r="GM33" t="n">
+      <c r="GN33" t="n">
         <v>18873</v>
       </c>
-      <c r="GN33" t="n">
+      <c r="GO33" t="n">
         <v>20960</v>
       </c>
     </row>
@@ -18670,15 +18753,18 @@
         <v>0</v>
       </c>
       <c r="GK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL34" t="n">
         <v>2</v>
       </c>
-      <c r="GL34" t="n">
+      <c r="GM34" t="n">
         <v>20</v>
       </c>
-      <c r="GM34" t="n">
+      <c r="GN34" t="n">
         <v>6</v>
       </c>
-      <c r="GN34" t="n">
+      <c r="GO34" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19262,15 +19348,18 @@
         <v>12</v>
       </c>
       <c r="GK35" t="n">
-        <v>969</v>
+        <v>5</v>
       </c>
       <c r="GL35" t="n">
+        <v>974</v>
+      </c>
+      <c r="GM35" t="n">
         <v>1505</v>
       </c>
-      <c r="GM35" t="n">
+      <c r="GN35" t="n">
         <v>2154</v>
       </c>
-      <c r="GN35" t="n">
+      <c r="GO35" t="n">
         <v>1334</v>
       </c>
     </row>
@@ -19852,15 +19941,18 @@
         <v>0</v>
       </c>
       <c r="GK36" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="GL36" t="n">
+        <v>31</v>
+      </c>
+      <c r="GM36" t="n">
         <v>72</v>
       </c>
-      <c r="GM36" t="n">
+      <c r="GN36" t="n">
         <v>79</v>
       </c>
-      <c r="GN36" t="n">
+      <c r="GO36" t="n">
         <v>209</v>
       </c>
     </row>
@@ -20444,15 +20536,18 @@
         <v>11</v>
       </c>
       <c r="GK37" t="n">
-        <v>514</v>
+        <v>12</v>
       </c>
       <c r="GL37" t="n">
+        <v>526</v>
+      </c>
+      <c r="GM37" t="n">
         <v>1122</v>
       </c>
-      <c r="GM37" t="n">
+      <c r="GN37" t="n">
         <v>764</v>
       </c>
-      <c r="GN37" t="n">
+      <c r="GO37" t="n">
         <v>562</v>
       </c>
     </row>
@@ -21039,12 +21134,15 @@
         <v>0</v>
       </c>
       <c r="GL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM38" t="n">
         <v>11</v>
       </c>
-      <c r="GM38" t="n">
+      <c r="GN38" t="n">
         <v>37</v>
       </c>
-      <c r="GN38" t="n">
+      <c r="GO38" t="n">
         <v>12</v>
       </c>
     </row>
@@ -21628,15 +21726,18 @@
         <v>0</v>
       </c>
       <c r="GK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL39" t="n">
         <v>5</v>
       </c>
-      <c r="GL39" t="n">
+      <c r="GM39" t="n">
         <v>15</v>
       </c>
-      <c r="GM39" t="n">
+      <c r="GN39" t="n">
         <v>169</v>
       </c>
-      <c r="GN39" t="n">
+      <c r="GO39" t="n">
         <v>338</v>
       </c>
     </row>
@@ -22226,15 +22327,18 @@
         <v>0</v>
       </c>
       <c r="GK40" t="n">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="GL40" t="n">
         <v>312</v>
       </c>
       <c r="GM40" t="n">
+        <v>312</v>
+      </c>
+      <c r="GN40" t="n">
         <v>495</v>
       </c>
-      <c r="GN40" t="n">
+      <c r="GO40" t="n">
         <v>560</v>
       </c>
     </row>
@@ -22905,12 +23009,15 @@
         <v>0</v>
       </c>
       <c r="GL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN41" t="n">
         <v>137</v>
       </c>
-      <c r="GN41" t="n">
+      <c r="GO41" t="n">
         <v>85</v>
       </c>
     </row>
@@ -23577,12 +23684,15 @@
         <v>0</v>
       </c>
       <c r="GL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM42" t="n">
         <v>809</v>
       </c>
-      <c r="GM42" t="n">
-        <v>0</v>
-      </c>
       <c r="GN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -24252,15 +24362,18 @@
         <v>0</v>
       </c>
       <c r="GK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL43" t="n">
         <v>2</v>
       </c>
-      <c r="GL43" t="n">
-        <v>0</v>
-      </c>
       <c r="GM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN43" t="n">
         <v>709</v>
       </c>
-      <c r="GN43" t="n">
+      <c r="GO43" t="n">
         <v>1036</v>
       </c>
     </row>
@@ -25158,12 +25271,10 @@
         <v>7</v>
       </c>
       <c r="GK44" t="n">
-        <v>216</v>
-      </c>
-      <c r="GL44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="GL44" t="n">
+        <v>219</v>
       </c>
       <c r="GM44" t="inlineStr">
         <is>
@@ -25171,6 +25282,11 @@
         </is>
       </c>
       <c r="GN44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -26070,12 +26186,10 @@
         <v>3</v>
       </c>
       <c r="GK45" t="n">
-        <v>97</v>
-      </c>
-      <c r="GL45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="GL45" t="n">
+        <v>99</v>
       </c>
       <c r="GM45" t="inlineStr">
         <is>
@@ -26083,6 +26197,11 @@
         </is>
       </c>
       <c r="GN45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO45" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -26762,15 +26881,18 @@
         <v>10</v>
       </c>
       <c r="GK46" t="n">
-        <v>283</v>
+        <v>9</v>
       </c>
       <c r="GL46" t="n">
+        <v>292</v>
+      </c>
+      <c r="GM46" t="n">
         <v>448</v>
       </c>
-      <c r="GM46" t="n">
+      <c r="GN46" t="n">
         <v>249</v>
       </c>
-      <c r="GN46" t="n">
+      <c r="GO46" t="n">
         <v>6</v>
       </c>
     </row>
@@ -27490,15 +27612,18 @@
         <v>0</v>
       </c>
       <c r="GK47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL47" t="n">
         <v>9</v>
       </c>
-      <c r="GL47" t="n">
+      <c r="GM47" t="n">
         <v>15</v>
       </c>
-      <c r="GM47" t="n">
+      <c r="GN47" t="n">
         <v>151</v>
       </c>
-      <c r="GN47" t="inlineStr">
+      <c r="GO47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -28203,12 +28328,15 @@
         <v>0</v>
       </c>
       <c r="GL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM48" t="n">
         <v>3</v>
       </c>
-      <c r="GM48" t="n">
+      <c r="GN48" t="n">
         <v>106</v>
       </c>
-      <c r="GN48" t="inlineStr">
+      <c r="GO48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -28794,15 +28922,18 @@
         <v>1</v>
       </c>
       <c r="GK49" t="n">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="GL49" t="n">
+        <v>227</v>
+      </c>
+      <c r="GM49" t="n">
         <v>319</v>
       </c>
-      <c r="GM49" t="n">
+      <c r="GN49" t="n">
         <v>200</v>
       </c>
-      <c r="GN49" t="n">
+      <c r="GO49" t="n">
         <v>111</v>
       </c>
     </row>
@@ -29397,6 +29528,9 @@
       <c r="GN50" t="n">
         <v>0</v>
       </c>
+      <c r="GO50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -29974,15 +30108,18 @@
         <v>159</v>
       </c>
       <c r="GK51" t="n">
-        <v>6261</v>
+        <v>171</v>
       </c>
       <c r="GL51" t="n">
+        <v>6432</v>
+      </c>
+      <c r="GM51" t="n">
         <v>26345</v>
       </c>
-      <c r="GM51" t="n">
+      <c r="GN51" t="n">
         <v>24129</v>
       </c>
-      <c r="GN51" t="n">
+      <c r="GO51" t="n">
         <v>25228</v>
       </c>
     </row>
@@ -30185,6 +30322,7 @@
       <c r="GL52" t="inlineStr"/>
       <c r="GM52" t="inlineStr"/>
       <c r="GN52" t="inlineStr"/>
+      <c r="GO52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -30385,6 +30523,7 @@
       <c r="GL53" t="inlineStr"/>
       <c r="GM53" t="inlineStr"/>
       <c r="GN53" t="inlineStr"/>
+      <c r="GO53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -30589,6 +30728,7 @@
       <c r="GL54" t="inlineStr"/>
       <c r="GM54" t="inlineStr"/>
       <c r="GN54" t="inlineStr"/>
+      <c r="GO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -30789,6 +30929,7 @@
       <c r="GL55" t="inlineStr"/>
       <c r="GM55" t="inlineStr"/>
       <c r="GN55" t="inlineStr"/>
+      <c r="GO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -31007,6 +31148,7 @@
       <c r="GL56" t="inlineStr"/>
       <c r="GM56" t="inlineStr"/>
       <c r="GN56" t="inlineStr"/>
+      <c r="GO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -31957,20 +32099,25 @@
       </c>
       <c r="GK57" t="inlineStr">
         <is>
+          <t>30_2023</t>
+        </is>
+      </c>
+      <c r="GL57" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2023 Total</t>
         </is>
       </c>
-      <c r="GL57" t="inlineStr">
+      <c r="GM57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2022 Total</t>
         </is>
       </c>
-      <c r="GM57" t="inlineStr">
+      <c r="GN57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2021 Total</t>
         </is>
       </c>
-      <c r="GN57" t="inlineStr">
+      <c r="GO57" t="inlineStr">
         <is>
           <t>2020 Total</t>
         </is>
@@ -32870,12 +33017,10 @@
         <v>4</v>
       </c>
       <c r="GK58" t="n">
-        <v>308</v>
-      </c>
-      <c r="GL58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="GL58" t="n">
+        <v>312</v>
       </c>
       <c r="GM58" t="inlineStr">
         <is>
@@ -32883,6 +33028,11 @@
         </is>
       </c>
       <c r="GN58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -33784,10 +33934,8 @@
       <c r="GK59" t="n">
         <v>0</v>
       </c>
-      <c r="GL59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL59" t="n">
+        <v>0</v>
       </c>
       <c r="GM59" t="inlineStr">
         <is>
@@ -33795,6 +33943,11 @@
         </is>
       </c>
       <c r="GN59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -34694,19 +34847,22 @@
         <v>1</v>
       </c>
       <c r="GK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL60" t="n">
         <v>137</v>
       </c>
-      <c r="GL60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="GM60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="GN60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -35606,19 +35762,22 @@
         <v>0</v>
       </c>
       <c r="GK61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL61" t="n">
         <v>2</v>
       </c>
-      <c r="GL61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="GM61" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="GN61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO61" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -36520,10 +36679,8 @@
       <c r="GK62" t="n">
         <v>0</v>
       </c>
-      <c r="GL62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL62" t="n">
+        <v>0</v>
       </c>
       <c r="GM62" t="inlineStr">
         <is>
@@ -36531,6 +36688,11 @@
         </is>
       </c>
       <c r="GN62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO62" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -37432,10 +37594,8 @@
       <c r="GK63" t="n">
         <v>0</v>
       </c>
-      <c r="GL63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL63" t="n">
+        <v>0</v>
       </c>
       <c r="GM63" t="inlineStr">
         <is>
@@ -37443,6 +37603,11 @@
         </is>
       </c>
       <c r="GN63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO63" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -38342,12 +38507,10 @@
         <v>0</v>
       </c>
       <c r="GK64" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="GL64" t="n">
+        <v>1</v>
       </c>
       <c r="GM64" t="inlineStr">
         <is>
@@ -38355,6 +38518,11 @@
         </is>
       </c>
       <c r="GN64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO64" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -39254,12 +39422,10 @@
         <v>0</v>
       </c>
       <c r="GK65" t="n">
-        <v>28</v>
-      </c>
-      <c r="GL65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="GL65" t="n">
+        <v>49</v>
       </c>
       <c r="GM65" t="inlineStr">
         <is>
@@ -39267,6 +39433,11 @@
         </is>
       </c>
       <c r="GN65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -40168,10 +40339,8 @@
       <c r="GK66" t="n">
         <v>0</v>
       </c>
-      <c r="GL66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL66" t="n">
+        <v>0</v>
       </c>
       <c r="GM66" t="inlineStr">
         <is>
@@ -40179,6 +40348,11 @@
         </is>
       </c>
       <c r="GN66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -41080,10 +41254,8 @@
       <c r="GK67" t="n">
         <v>0</v>
       </c>
-      <c r="GL67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL67" t="n">
+        <v>0</v>
       </c>
       <c r="GM67" t="inlineStr">
         <is>
@@ -41091,6 +41263,11 @@
         </is>
       </c>
       <c r="GN67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO67" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -41992,10 +42169,8 @@
       <c r="GK68" t="n">
         <v>0</v>
       </c>
-      <c r="GL68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL68" t="n">
+        <v>0</v>
       </c>
       <c r="GM68" t="inlineStr">
         <is>
@@ -42003,6 +42178,11 @@
         </is>
       </c>
       <c r="GN68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO68" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -42902,12 +43082,10 @@
         <v>7</v>
       </c>
       <c r="GK69" t="n">
-        <v>216</v>
-      </c>
-      <c r="GL69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="GL69" t="n">
+        <v>219</v>
       </c>
       <c r="GM69" t="inlineStr">
         <is>
@@ -42915,6 +43093,11 @@
         </is>
       </c>
       <c r="GN69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO69" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -43814,12 +43997,10 @@
         <v>3</v>
       </c>
       <c r="GK70" t="n">
-        <v>95</v>
-      </c>
-      <c r="GL70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="GL70" t="n">
+        <v>97</v>
       </c>
       <c r="GM70" t="inlineStr">
         <is>
@@ -43827,6 +44008,11 @@
         </is>
       </c>
       <c r="GN70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO70" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -44726,12 +44912,10 @@
         <v>2</v>
       </c>
       <c r="GK71" t="n">
-        <v>33</v>
-      </c>
-      <c r="GL71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="GL71" t="n">
+        <v>34</v>
       </c>
       <c r="GM71" t="inlineStr">
         <is>
@@ -44739,6 +44923,11 @@
         </is>
       </c>
       <c r="GN71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -45636,10 +45825,8 @@
       <c r="GK72" t="n">
         <v>0</v>
       </c>
-      <c r="GL72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL72" t="n">
+        <v>0</v>
       </c>
       <c r="GM72" t="inlineStr">
         <is>
@@ -45647,6 +45834,11 @@
         </is>
       </c>
       <c r="GN72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -46544,10 +46736,8 @@
       <c r="GK73" t="n">
         <v>0</v>
       </c>
-      <c r="GL73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL73" t="n">
+        <v>0</v>
       </c>
       <c r="GM73" t="inlineStr">
         <is>
@@ -46555,6 +46745,11 @@
         </is>
       </c>
       <c r="GN73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -47454,19 +47649,22 @@
         <v>0</v>
       </c>
       <c r="GK74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL74" t="n">
         <v>14</v>
       </c>
-      <c r="GL74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="GM74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
       <c r="GN74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -48368,10 +48566,8 @@
       <c r="GK75" t="n">
         <v>0</v>
       </c>
-      <c r="GL75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="GL75" t="n">
+        <v>0</v>
       </c>
       <c r="GM75" t="inlineStr">
         <is>
@@ -48379,6 +48575,11 @@
         </is>
       </c>
       <c r="GN75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="GO75" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -49274,15 +49475,18 @@
         <v>17</v>
       </c>
       <c r="GK76" t="n">
-        <v>834</v>
+        <v>31</v>
       </c>
       <c r="GL76" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="GM76" t="n">
         <v>0</v>
       </c>
       <c r="GN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49485,6 +49689,7 @@
       <c r="GL77" t="inlineStr"/>
       <c r="GM77" t="inlineStr"/>
       <c r="GN77" t="inlineStr"/>
+      <c r="GO77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -49685,6 +49890,7 @@
       <c r="GL78" t="inlineStr"/>
       <c r="GM78" t="inlineStr"/>
       <c r="GN78" t="inlineStr"/>
+      <c r="GO78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -49889,6 +50095,7 @@
       <c r="GL79" t="inlineStr"/>
       <c r="GM79" t="inlineStr"/>
       <c r="GN79" t="inlineStr"/>
+      <c r="GO79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -50089,6 +50296,7 @@
       <c r="GL80" t="inlineStr"/>
       <c r="GM80" t="inlineStr"/>
       <c r="GN80" t="inlineStr"/>
+      <c r="GO80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -50305,6 +50513,7 @@
       <c r="GL81" t="inlineStr"/>
       <c r="GM81" t="inlineStr"/>
       <c r="GN81" t="inlineStr"/>
+      <c r="GO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -50935,6 +51144,7 @@
       <c r="GL82" t="inlineStr"/>
       <c r="GM82" t="inlineStr"/>
       <c r="GN82" t="inlineStr"/>
+      <c r="GO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -51685,6 +51895,7 @@
       <c r="GL83" t="inlineStr"/>
       <c r="GM83" t="inlineStr"/>
       <c r="GN83" t="inlineStr"/>
+      <c r="GO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -52435,6 +52646,7 @@
       <c r="GL84" t="inlineStr"/>
       <c r="GM84" t="inlineStr"/>
       <c r="GN84" t="inlineStr"/>
+      <c r="GO84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -53185,6 +53397,7 @@
       <c r="GL85" t="inlineStr"/>
       <c r="GM85" t="inlineStr"/>
       <c r="GN85" t="inlineStr"/>
+      <c r="GO85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1.xlsx
+++ b/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GU85"/>
+  <dimension ref="A1:HK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1039,54 @@
       </c>
       <c r="GU1" s="1" t="n">
         <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="2">
@@ -1247,6 +1295,22 @@
       <c r="GS2" t="inlineStr"/>
       <c r="GT2" t="inlineStr"/>
       <c r="GU2" t="inlineStr"/>
+      <c r="GV2" t="inlineStr"/>
+      <c r="GW2" t="inlineStr"/>
+      <c r="GX2" t="inlineStr"/>
+      <c r="GY2" t="inlineStr"/>
+      <c r="GZ2" t="inlineStr"/>
+      <c r="HA2" t="inlineStr"/>
+      <c r="HB2" t="inlineStr"/>
+      <c r="HC2" t="inlineStr"/>
+      <c r="HD2" t="inlineStr"/>
+      <c r="HE2" t="inlineStr"/>
+      <c r="HF2" t="inlineStr"/>
+      <c r="HG2" t="inlineStr"/>
+      <c r="HH2" t="inlineStr"/>
+      <c r="HI2" t="inlineStr"/>
+      <c r="HJ2" t="inlineStr"/>
+      <c r="HK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1454,6 +1518,22 @@
       <c r="GS3" t="inlineStr"/>
       <c r="GT3" t="inlineStr"/>
       <c r="GU3" t="inlineStr"/>
+      <c r="GV3" t="inlineStr"/>
+      <c r="GW3" t="inlineStr"/>
+      <c r="GX3" t="inlineStr"/>
+      <c r="GY3" t="inlineStr"/>
+      <c r="GZ3" t="inlineStr"/>
+      <c r="HA3" t="inlineStr"/>
+      <c r="HB3" t="inlineStr"/>
+      <c r="HC3" t="inlineStr"/>
+      <c r="HD3" t="inlineStr"/>
+      <c r="HE3" t="inlineStr"/>
+      <c r="HF3" t="inlineStr"/>
+      <c r="HG3" t="inlineStr"/>
+      <c r="HH3" t="inlineStr"/>
+      <c r="HI3" t="inlineStr"/>
+      <c r="HJ3" t="inlineStr"/>
+      <c r="HK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1665,6 +1745,22 @@
       <c r="GS4" t="inlineStr"/>
       <c r="GT4" t="inlineStr"/>
       <c r="GU4" t="inlineStr"/>
+      <c r="GV4" t="inlineStr"/>
+      <c r="GW4" t="inlineStr"/>
+      <c r="GX4" t="inlineStr"/>
+      <c r="GY4" t="inlineStr"/>
+      <c r="GZ4" t="inlineStr"/>
+      <c r="HA4" t="inlineStr"/>
+      <c r="HB4" t="inlineStr"/>
+      <c r="HC4" t="inlineStr"/>
+      <c r="HD4" t="inlineStr"/>
+      <c r="HE4" t="inlineStr"/>
+      <c r="HF4" t="inlineStr"/>
+      <c r="HG4" t="inlineStr"/>
+      <c r="HH4" t="inlineStr"/>
+      <c r="HI4" t="inlineStr"/>
+      <c r="HJ4" t="inlineStr"/>
+      <c r="HK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1872,6 +1968,22 @@
       <c r="GS5" t="inlineStr"/>
       <c r="GT5" t="inlineStr"/>
       <c r="GU5" t="inlineStr"/>
+      <c r="GV5" t="inlineStr"/>
+      <c r="GW5" t="inlineStr"/>
+      <c r="GX5" t="inlineStr"/>
+      <c r="GY5" t="inlineStr"/>
+      <c r="GZ5" t="inlineStr"/>
+      <c r="HA5" t="inlineStr"/>
+      <c r="HB5" t="inlineStr"/>
+      <c r="HC5" t="inlineStr"/>
+      <c r="HD5" t="inlineStr"/>
+      <c r="HE5" t="inlineStr"/>
+      <c r="HF5" t="inlineStr"/>
+      <c r="HG5" t="inlineStr"/>
+      <c r="HH5" t="inlineStr"/>
+      <c r="HI5" t="inlineStr"/>
+      <c r="HJ5" t="inlineStr"/>
+      <c r="HK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2097,6 +2209,22 @@
       <c r="GS6" t="inlineStr"/>
       <c r="GT6" t="inlineStr"/>
       <c r="GU6" t="inlineStr"/>
+      <c r="GV6" t="inlineStr"/>
+      <c r="GW6" t="inlineStr"/>
+      <c r="GX6" t="inlineStr"/>
+      <c r="GY6" t="inlineStr"/>
+      <c r="GZ6" t="inlineStr"/>
+      <c r="HA6" t="inlineStr"/>
+      <c r="HB6" t="inlineStr"/>
+      <c r="HC6" t="inlineStr"/>
+      <c r="HD6" t="inlineStr"/>
+      <c r="HE6" t="inlineStr"/>
+      <c r="HF6" t="inlineStr"/>
+      <c r="HG6" t="inlineStr"/>
+      <c r="HH6" t="inlineStr"/>
+      <c r="HI6" t="inlineStr"/>
+      <c r="HJ6" t="inlineStr"/>
+      <c r="HK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -3082,20 +3210,100 @@
       </c>
       <c r="GR7" t="inlineStr">
         <is>
+          <t>39_2023</t>
+        </is>
+      </c>
+      <c r="GS7" t="inlineStr">
+        <is>
+          <t>40_2023</t>
+        </is>
+      </c>
+      <c r="GT7" t="inlineStr">
+        <is>
+          <t>41_2023</t>
+        </is>
+      </c>
+      <c r="GU7" t="inlineStr">
+        <is>
+          <t>42_2023</t>
+        </is>
+      </c>
+      <c r="GV7" t="inlineStr">
+        <is>
+          <t>43_2023</t>
+        </is>
+      </c>
+      <c r="GW7" t="inlineStr">
+        <is>
+          <t>44_2023</t>
+        </is>
+      </c>
+      <c r="GX7" t="inlineStr">
+        <is>
+          <t>45_2023</t>
+        </is>
+      </c>
+      <c r="GY7" t="inlineStr">
+        <is>
+          <t>46_2023</t>
+        </is>
+      </c>
+      <c r="GZ7" t="inlineStr">
+        <is>
+          <t>47_2023</t>
+        </is>
+      </c>
+      <c r="HA7" t="inlineStr">
+        <is>
+          <t>48_2023</t>
+        </is>
+      </c>
+      <c r="HB7" t="inlineStr">
+        <is>
+          <t>49_2023</t>
+        </is>
+      </c>
+      <c r="HC7" t="inlineStr">
+        <is>
+          <t>50_2023</t>
+        </is>
+      </c>
+      <c r="HD7" t="inlineStr">
+        <is>
+          <t>51_2023</t>
+        </is>
+      </c>
+      <c r="HE7" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HF7" t="inlineStr">
+        <is>
+          <t>2024 Total</t>
+        </is>
+      </c>
+      <c r="HG7" t="inlineStr">
+        <is>
+          <t>2024 Total</t>
+        </is>
+      </c>
+      <c r="HH7" t="inlineStr">
+        <is>
           <t>2023 Total</t>
         </is>
       </c>
-      <c r="GS7" t="inlineStr">
+      <c r="HI7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2022 Total</t>
         </is>
       </c>
-      <c r="GT7" t="inlineStr">
+      <c r="HJ7" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2021 Total</t>
         </is>
       </c>
-      <c r="GU7" t="inlineStr">
+      <c r="HK7" t="inlineStr">
         <is>
           <t>2020 Total</t>
         </is>
@@ -3702,15 +3910,63 @@
         <v>75</v>
       </c>
       <c r="GR8" t="n">
-        <v>3870</v>
+        <v>94</v>
       </c>
       <c r="GS8" t="n">
+        <v>92</v>
+      </c>
+      <c r="GT8" t="n">
+        <v>88</v>
+      </c>
+      <c r="GU8" t="n">
+        <v>87</v>
+      </c>
+      <c r="GV8" t="n">
+        <v>84</v>
+      </c>
+      <c r="GW8" t="n">
+        <v>69</v>
+      </c>
+      <c r="GX8" t="n">
+        <v>82</v>
+      </c>
+      <c r="GY8" t="n">
+        <v>90</v>
+      </c>
+      <c r="GZ8" t="n">
+        <v>77</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>90</v>
+      </c>
+      <c r="HB8" t="n">
+        <v>106</v>
+      </c>
+      <c r="HC8" t="n">
+        <v>83</v>
+      </c>
+      <c r="HD8" t="n">
+        <v>62</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>67</v>
+      </c>
+      <c r="HF8" t="n">
+        <v>82</v>
+      </c>
+      <c r="HG8" t="n">
+        <v>82</v>
+      </c>
+      <c r="HH8" t="n">
+        <v>5041</v>
+      </c>
+      <c r="HI8" t="n">
         <v>19039</v>
       </c>
-      <c r="GT8" t="n">
+      <c r="HJ8" t="n">
         <v>13781</v>
       </c>
-      <c r="GU8" t="n">
+      <c r="HK8" t="n">
         <v>16598</v>
       </c>
     </row>
@@ -4315,15 +4571,63 @@
         <v>0</v>
       </c>
       <c r="GR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH9" t="n">
         <v>2</v>
       </c>
-      <c r="GS9" t="n">
+      <c r="HI9" t="n">
         <v>19</v>
       </c>
-      <c r="GT9" t="n">
+      <c r="HJ9" t="n">
         <v>5</v>
       </c>
-      <c r="GU9" t="n">
+      <c r="HK9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4928,15 +5232,63 @@
         <v>2</v>
       </c>
       <c r="GR10" t="n">
-        <v>420</v>
+        <v>9</v>
       </c>
       <c r="GS10" t="n">
+        <v>8</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>7</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>9</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>12</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>7</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>7</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>541</v>
+      </c>
+      <c r="HI10" t="n">
         <v>746</v>
       </c>
-      <c r="GT10" t="n">
+      <c r="HJ10" t="n">
         <v>1132</v>
       </c>
-      <c r="GU10" t="n">
+      <c r="HK10" t="n">
         <v>652</v>
       </c>
     </row>
@@ -5541,15 +5893,63 @@
         <v>0</v>
       </c>
       <c r="GR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH11" t="n">
         <v>14</v>
       </c>
-      <c r="GS11" t="n">
+      <c r="HI11" t="n">
         <v>39</v>
       </c>
-      <c r="GT11" t="n">
+      <c r="HJ11" t="n">
         <v>36</v>
       </c>
-      <c r="GU11" t="n">
+      <c r="HK11" t="n">
         <v>54</v>
       </c>
     </row>
@@ -6154,15 +6554,63 @@
         <v>22</v>
       </c>
       <c r="GR12" t="n">
-        <v>601</v>
+        <v>18</v>
       </c>
       <c r="GS12" t="n">
+        <v>19</v>
+      </c>
+      <c r="GT12" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU12" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV12" t="n">
+        <v>20</v>
+      </c>
+      <c r="GW12" t="n">
+        <v>18</v>
+      </c>
+      <c r="GX12" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY12" t="n">
+        <v>12</v>
+      </c>
+      <c r="GZ12" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA12" t="n">
+        <v>25</v>
+      </c>
+      <c r="HB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="HC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="HD12" t="n">
+        <v>15</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF12" t="n">
+        <v>14</v>
+      </c>
+      <c r="HG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="HH12" t="n">
+        <v>804</v>
+      </c>
+      <c r="HI12" t="n">
         <v>1060</v>
       </c>
-      <c r="GT12" t="n">
+      <c r="HJ12" t="n">
         <v>688</v>
       </c>
-      <c r="GU12" t="n">
+      <c r="HK12" t="n">
         <v>509</v>
       </c>
     </row>
@@ -6770,12 +7218,60 @@
         <v>0</v>
       </c>
       <c r="GS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI13" t="n">
         <v>10</v>
       </c>
-      <c r="GT13" t="n">
+      <c r="HJ13" t="n">
         <v>26</v>
       </c>
-      <c r="GU13" t="n">
+      <c r="HK13" t="n">
         <v>11</v>
       </c>
     </row>
@@ -7380,15 +7876,63 @@
         <v>0</v>
       </c>
       <c r="GR14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="GS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH14" t="n">
+        <v>5</v>
+      </c>
+      <c r="HI14" t="n">
         <v>14</v>
       </c>
-      <c r="GT14" t="n">
+      <c r="HJ14" t="n">
         <v>104</v>
       </c>
-      <c r="GU14" t="n">
+      <c r="HK14" t="n">
         <v>240</v>
       </c>
     </row>
@@ -7999,15 +8543,63 @@
         <v>1</v>
       </c>
       <c r="GR15" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="GS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT15" t="n">
+        <v>5</v>
+      </c>
+      <c r="GU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW15" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX15" t="n">
+        <v>2</v>
+      </c>
+      <c r="GY15" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB15" t="n">
+        <v>4</v>
+      </c>
+      <c r="HC15" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD15" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH15" t="n">
+        <v>118</v>
+      </c>
+      <c r="HI15" t="n">
         <v>128</v>
       </c>
-      <c r="GT15" t="n">
+      <c r="HJ15" t="n">
         <v>241</v>
       </c>
-      <c r="GU15" t="n">
+      <c r="HK15" t="n">
         <v>189</v>
       </c>
     </row>
@@ -8699,12 +9291,60 @@
         <v>0</v>
       </c>
       <c r="GS16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI16" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ16" t="n">
         <v>99</v>
       </c>
-      <c r="GU16" t="n">
+      <c r="HK16" t="n">
         <v>61</v>
       </c>
     </row>
@@ -9389,15 +10029,63 @@
         <v>0</v>
       </c>
       <c r="GR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="HI17" t="n">
         <v>14</v>
       </c>
-      <c r="GT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU17" t="n">
+      <c r="HJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10088,15 +10776,63 @@
         <v>0</v>
       </c>
       <c r="GR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH18" t="n">
         <v>2</v>
       </c>
-      <c r="GS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT18" t="n">
+      <c r="HI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ18" t="n">
         <v>656</v>
       </c>
-      <c r="GU18" t="n">
+      <c r="HK18" t="n">
         <v>742</v>
       </c>
     </row>
@@ -11015,19 +11751,67 @@
         <v>8</v>
       </c>
       <c r="GR19" t="n">
-        <v>246</v>
-      </c>
-      <c r="GS19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU19" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="GS19" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU19" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV19" t="n">
+        <v>9</v>
+      </c>
+      <c r="GW19" t="n">
+        <v>6</v>
+      </c>
+      <c r="GX19" t="n">
+        <v>10</v>
+      </c>
+      <c r="GY19" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB19" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC19" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD19" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF19" t="n">
+        <v>5</v>
+      </c>
+      <c r="HG19" t="n">
+        <v>5</v>
+      </c>
+      <c r="HH19" t="n">
+        <v>338</v>
+      </c>
+      <c r="HI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11948,19 +12732,67 @@
         <v>2</v>
       </c>
       <c r="GR20" t="n">
-        <v>105</v>
-      </c>
-      <c r="GS20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU20" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="GS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW20" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX20" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH20" t="n">
+        <v>128</v>
+      </c>
+      <c r="HI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12661,15 +13493,63 @@
         <v>8</v>
       </c>
       <c r="GR21" t="n">
-        <v>274</v>
+        <v>7</v>
       </c>
       <c r="GS21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT21" t="n">
+        <v>12</v>
+      </c>
+      <c r="GU21" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV21" t="n">
+        <v>8</v>
+      </c>
+      <c r="GW21" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX21" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC21" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>4</v>
+      </c>
+      <c r="HF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HG21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HH21" t="n">
+        <v>376</v>
+      </c>
+      <c r="HI21" t="n">
         <v>352</v>
       </c>
-      <c r="GT21" t="n">
+      <c r="HJ21" t="n">
         <v>188</v>
       </c>
-      <c r="GU21" t="n">
+      <c r="HK21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13414,15 +14294,63 @@
         <v>0</v>
       </c>
       <c r="GR22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="GS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="HI22" t="n">
         <v>13</v>
       </c>
-      <c r="GT22" t="n">
+      <c r="HJ22" t="n">
         <v>118</v>
       </c>
-      <c r="GU22" t="inlineStr">
+      <c r="HK22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14152,12 +15080,60 @@
         <v>0</v>
       </c>
       <c r="GS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI23" t="n">
         <v>3</v>
       </c>
-      <c r="GT23" t="n">
+      <c r="HJ23" t="n">
         <v>29</v>
       </c>
-      <c r="GU23" t="inlineStr">
+      <c r="HK23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14764,15 +15740,63 @@
         <v>1</v>
       </c>
       <c r="GR24" t="n">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="GS24" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>251</v>
+      </c>
+      <c r="HI24" t="n">
         <v>214</v>
       </c>
-      <c r="GT24" t="n">
+      <c r="HJ24" t="n">
         <v>155</v>
       </c>
-      <c r="GU24" t="n">
+      <c r="HK24" t="n">
         <v>90</v>
       </c>
     </row>
@@ -15388,6 +16412,54 @@
       <c r="GU25" t="n">
         <v>0</v>
       </c>
+      <c r="GV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15986,15 +17058,63 @@
         <v>119</v>
       </c>
       <c r="GR26" t="n">
-        <v>5832</v>
+        <v>142</v>
       </c>
       <c r="GS26" t="n">
+        <v>146</v>
+      </c>
+      <c r="GT26" t="n">
+        <v>132</v>
+      </c>
+      <c r="GU26" t="n">
+        <v>127</v>
+      </c>
+      <c r="GV26" t="n">
+        <v>137</v>
+      </c>
+      <c r="GW26" t="n">
+        <v>117</v>
+      </c>
+      <c r="GX26" t="n">
+        <v>118</v>
+      </c>
+      <c r="GY26" t="n">
+        <v>129</v>
+      </c>
+      <c r="GZ26" t="n">
+        <v>132</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>152</v>
+      </c>
+      <c r="HB26" t="n">
+        <v>152</v>
+      </c>
+      <c r="HC26" t="n">
+        <v>125</v>
+      </c>
+      <c r="HD26" t="n">
+        <v>125</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>87</v>
+      </c>
+      <c r="HF26" t="n">
+        <v>122</v>
+      </c>
+      <c r="HG26" t="n">
+        <v>122</v>
+      </c>
+      <c r="HH26" t="n">
+        <v>7653</v>
+      </c>
+      <c r="HI26" t="n">
         <v>21652</v>
       </c>
-      <c r="GT26" t="n">
+      <c r="HJ26" t="n">
         <v>17258</v>
       </c>
-      <c r="GU26" t="n">
+      <c r="HK26" t="n">
         <v>19164</v>
       </c>
     </row>
@@ -16204,6 +17324,22 @@
       <c r="GS27" t="inlineStr"/>
       <c r="GT27" t="inlineStr"/>
       <c r="GU27" t="inlineStr"/>
+      <c r="GV27" t="inlineStr"/>
+      <c r="GW27" t="inlineStr"/>
+      <c r="GX27" t="inlineStr"/>
+      <c r="GY27" t="inlineStr"/>
+      <c r="GZ27" t="inlineStr"/>
+      <c r="HA27" t="inlineStr"/>
+      <c r="HB27" t="inlineStr"/>
+      <c r="HC27" t="inlineStr"/>
+      <c r="HD27" t="inlineStr"/>
+      <c r="HE27" t="inlineStr"/>
+      <c r="HF27" t="inlineStr"/>
+      <c r="HG27" t="inlineStr"/>
+      <c r="HH27" t="inlineStr"/>
+      <c r="HI27" t="inlineStr"/>
+      <c r="HJ27" t="inlineStr"/>
+      <c r="HK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -16411,6 +17547,22 @@
       <c r="GS28" t="inlineStr"/>
       <c r="GT28" t="inlineStr"/>
       <c r="GU28" t="inlineStr"/>
+      <c r="GV28" t="inlineStr"/>
+      <c r="GW28" t="inlineStr"/>
+      <c r="GX28" t="inlineStr"/>
+      <c r="GY28" t="inlineStr"/>
+      <c r="GZ28" t="inlineStr"/>
+      <c r="HA28" t="inlineStr"/>
+      <c r="HB28" t="inlineStr"/>
+      <c r="HC28" t="inlineStr"/>
+      <c r="HD28" t="inlineStr"/>
+      <c r="HE28" t="inlineStr"/>
+      <c r="HF28" t="inlineStr"/>
+      <c r="HG28" t="inlineStr"/>
+      <c r="HH28" t="inlineStr"/>
+      <c r="HI28" t="inlineStr"/>
+      <c r="HJ28" t="inlineStr"/>
+      <c r="HK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -16622,6 +17774,22 @@
       <c r="GS29" t="inlineStr"/>
       <c r="GT29" t="inlineStr"/>
       <c r="GU29" t="inlineStr"/>
+      <c r="GV29" t="inlineStr"/>
+      <c r="GW29" t="inlineStr"/>
+      <c r="GX29" t="inlineStr"/>
+      <c r="GY29" t="inlineStr"/>
+      <c r="GZ29" t="inlineStr"/>
+      <c r="HA29" t="inlineStr"/>
+      <c r="HB29" t="inlineStr"/>
+      <c r="HC29" t="inlineStr"/>
+      <c r="HD29" t="inlineStr"/>
+      <c r="HE29" t="inlineStr"/>
+      <c r="HF29" t="inlineStr"/>
+      <c r="HG29" t="inlineStr"/>
+      <c r="HH29" t="inlineStr"/>
+      <c r="HI29" t="inlineStr"/>
+      <c r="HJ29" t="inlineStr"/>
+      <c r="HK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -16829,6 +17997,22 @@
       <c r="GS30" t="inlineStr"/>
       <c r="GT30" t="inlineStr"/>
       <c r="GU30" t="inlineStr"/>
+      <c r="GV30" t="inlineStr"/>
+      <c r="GW30" t="inlineStr"/>
+      <c r="GX30" t="inlineStr"/>
+      <c r="GY30" t="inlineStr"/>
+      <c r="GZ30" t="inlineStr"/>
+      <c r="HA30" t="inlineStr"/>
+      <c r="HB30" t="inlineStr"/>
+      <c r="HC30" t="inlineStr"/>
+      <c r="HD30" t="inlineStr"/>
+      <c r="HE30" t="inlineStr"/>
+      <c r="HF30" t="inlineStr"/>
+      <c r="HG30" t="inlineStr"/>
+      <c r="HH30" t="inlineStr"/>
+      <c r="HI30" t="inlineStr"/>
+      <c r="HJ30" t="inlineStr"/>
+      <c r="HK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -17054,6 +18238,22 @@
       <c r="GS31" t="inlineStr"/>
       <c r="GT31" t="inlineStr"/>
       <c r="GU31" t="inlineStr"/>
+      <c r="GV31" t="inlineStr"/>
+      <c r="GW31" t="inlineStr"/>
+      <c r="GX31" t="inlineStr"/>
+      <c r="GY31" t="inlineStr"/>
+      <c r="GZ31" t="inlineStr"/>
+      <c r="HA31" t="inlineStr"/>
+      <c r="HB31" t="inlineStr"/>
+      <c r="HC31" t="inlineStr"/>
+      <c r="HD31" t="inlineStr"/>
+      <c r="HE31" t="inlineStr"/>
+      <c r="HF31" t="inlineStr"/>
+      <c r="HG31" t="inlineStr"/>
+      <c r="HH31" t="inlineStr"/>
+      <c r="HI31" t="inlineStr"/>
+      <c r="HJ31" t="inlineStr"/>
+      <c r="HK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -18029,30 +19229,110 @@
       </c>
       <c r="GP32" t="inlineStr">
         <is>
-          <t>36_2023</t>
+          <t>37_2023</t>
         </is>
       </c>
       <c r="GQ32" t="inlineStr">
         <is>
-          <t>36_2023</t>
+          <t>38_2023</t>
         </is>
       </c>
       <c r="GR32" t="inlineStr">
         <is>
+          <t>39_2023</t>
+        </is>
+      </c>
+      <c r="GS32" t="inlineStr">
+        <is>
+          <t>40_2023</t>
+        </is>
+      </c>
+      <c r="GT32" t="inlineStr">
+        <is>
+          <t>41_2023</t>
+        </is>
+      </c>
+      <c r="GU32" t="inlineStr">
+        <is>
+          <t>42_2023</t>
+        </is>
+      </c>
+      <c r="GV32" t="inlineStr">
+        <is>
+          <t>43_2023</t>
+        </is>
+      </c>
+      <c r="GW32" t="inlineStr">
+        <is>
+          <t>44_2023</t>
+        </is>
+      </c>
+      <c r="GX32" t="inlineStr">
+        <is>
+          <t>45_2023</t>
+        </is>
+      </c>
+      <c r="GY32" t="inlineStr">
+        <is>
+          <t>46_2023</t>
+        </is>
+      </c>
+      <c r="GZ32" t="inlineStr">
+        <is>
+          <t>47_2023</t>
+        </is>
+      </c>
+      <c r="HA32" t="inlineStr">
+        <is>
+          <t>48_2023</t>
+        </is>
+      </c>
+      <c r="HB32" t="inlineStr">
+        <is>
+          <t>49_2023</t>
+        </is>
+      </c>
+      <c r="HC32" t="inlineStr">
+        <is>
+          <t>50_2023</t>
+        </is>
+      </c>
+      <c r="HD32" t="inlineStr">
+        <is>
+          <t>51_2023</t>
+        </is>
+      </c>
+      <c r="HE32" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HF32" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HG32" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HH32" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2023 Total</t>
         </is>
       </c>
-      <c r="GS32" t="inlineStr">
+      <c r="HI32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2022 Total</t>
         </is>
       </c>
-      <c r="GT32" t="inlineStr">
+      <c r="HJ32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2021 Total</t>
         </is>
       </c>
-      <c r="GU32" t="inlineStr">
+      <c r="HK32" t="inlineStr">
         <is>
           <t>2020 Total</t>
         </is>
@@ -18659,15 +19939,63 @@
         <v>79</v>
       </c>
       <c r="GR33" t="n">
-        <v>4291</v>
+        <v>106</v>
       </c>
       <c r="GS33" t="n">
+        <v>95</v>
+      </c>
+      <c r="GT33" t="n">
+        <v>91</v>
+      </c>
+      <c r="GU33" t="n">
+        <v>87</v>
+      </c>
+      <c r="GV33" t="n">
+        <v>103</v>
+      </c>
+      <c r="GW33" t="n">
+        <v>71</v>
+      </c>
+      <c r="GX33" t="n">
+        <v>83</v>
+      </c>
+      <c r="GY33" t="n">
+        <v>99</v>
+      </c>
+      <c r="GZ33" t="n">
+        <v>85</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>126</v>
+      </c>
+      <c r="HB33" t="n">
+        <v>117</v>
+      </c>
+      <c r="HC33" t="n">
+        <v>98</v>
+      </c>
+      <c r="HD33" t="n">
+        <v>64</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>98</v>
+      </c>
+      <c r="HF33" t="n">
+        <v>92</v>
+      </c>
+      <c r="HG33" t="n">
+        <v>92</v>
+      </c>
+      <c r="HH33" t="n">
+        <v>5614</v>
+      </c>
+      <c r="HI33" t="n">
         <v>21693</v>
       </c>
-      <c r="GT33" t="n">
+      <c r="HJ33" t="n">
         <v>18873</v>
       </c>
-      <c r="GU33" t="n">
+      <c r="HK33" t="n">
         <v>20960</v>
       </c>
     </row>
@@ -19272,15 +20600,63 @@
         <v>0</v>
       </c>
       <c r="GR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH34" t="n">
         <v>2</v>
       </c>
-      <c r="GS34" t="n">
+      <c r="HI34" t="n">
         <v>20</v>
       </c>
-      <c r="GT34" t="n">
+      <c r="HJ34" t="n">
         <v>6</v>
       </c>
-      <c r="GU34" t="n">
+      <c r="HK34" t="n">
         <v>10</v>
       </c>
     </row>
@@ -19885,15 +21261,63 @@
         <v>3</v>
       </c>
       <c r="GR35" t="n">
-        <v>1035</v>
+        <v>13</v>
       </c>
       <c r="GS35" t="n">
+        <v>18</v>
+      </c>
+      <c r="GT35" t="n">
+        <v>8</v>
+      </c>
+      <c r="GU35" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV35" t="n">
+        <v>364</v>
+      </c>
+      <c r="GW35" t="n">
+        <v>181</v>
+      </c>
+      <c r="GX35" t="n">
+        <v>10</v>
+      </c>
+      <c r="GY35" t="n">
+        <v>13</v>
+      </c>
+      <c r="GZ35" t="n">
+        <v>432</v>
+      </c>
+      <c r="HA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="HB35" t="n">
+        <v>216</v>
+      </c>
+      <c r="HC35" t="n">
+        <v>217</v>
+      </c>
+      <c r="HD35" t="n">
+        <v>13</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>18</v>
+      </c>
+      <c r="HF35" t="n">
+        <v>29</v>
+      </c>
+      <c r="HG35" t="n">
+        <v>29</v>
+      </c>
+      <c r="HH35" t="n">
+        <v>2556</v>
+      </c>
+      <c r="HI35" t="n">
         <v>1505</v>
       </c>
-      <c r="GT35" t="n">
+      <c r="HJ35" t="n">
         <v>2154</v>
       </c>
-      <c r="GU35" t="n">
+      <c r="HK35" t="n">
         <v>1334</v>
       </c>
     </row>
@@ -20496,15 +21920,63 @@
         <v>0</v>
       </c>
       <c r="GR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH36" t="n">
         <v>32</v>
       </c>
-      <c r="GS36" t="n">
+      <c r="HI36" t="n">
         <v>72</v>
       </c>
-      <c r="GT36" t="n">
+      <c r="HJ36" t="n">
         <v>79</v>
       </c>
-      <c r="GU36" t="n">
+      <c r="HK36" t="n">
         <v>209</v>
       </c>
     </row>
@@ -21109,15 +22581,63 @@
         <v>23</v>
       </c>
       <c r="GR37" t="n">
-        <v>634</v>
+        <v>18</v>
       </c>
       <c r="GS37" t="n">
+        <v>19</v>
+      </c>
+      <c r="GT37" t="n">
+        <v>10</v>
+      </c>
+      <c r="GU37" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV37" t="n">
+        <v>20</v>
+      </c>
+      <c r="GW37" t="n">
+        <v>19</v>
+      </c>
+      <c r="GX37" t="n">
+        <v>9</v>
+      </c>
+      <c r="GY37" t="n">
+        <v>14</v>
+      </c>
+      <c r="GZ37" t="n">
+        <v>19</v>
+      </c>
+      <c r="HA37" t="n">
+        <v>28</v>
+      </c>
+      <c r="HB37" t="n">
+        <v>13</v>
+      </c>
+      <c r="HC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="HD37" t="n">
+        <v>16</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>5</v>
+      </c>
+      <c r="HF37" t="n">
+        <v>15</v>
+      </c>
+      <c r="HG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="HH37" t="n">
+        <v>847</v>
+      </c>
+      <c r="HI37" t="n">
         <v>1122</v>
       </c>
-      <c r="GT37" t="n">
+      <c r="HJ37" t="n">
         <v>764</v>
       </c>
-      <c r="GU37" t="n">
+      <c r="HK37" t="n">
         <v>562</v>
       </c>
     </row>
@@ -21725,12 +23245,60 @@
         <v>0</v>
       </c>
       <c r="GS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI38" t="n">
         <v>11</v>
       </c>
-      <c r="GT38" t="n">
+      <c r="HJ38" t="n">
         <v>37</v>
       </c>
-      <c r="GU38" t="n">
+      <c r="HK38" t="n">
         <v>12</v>
       </c>
     </row>
@@ -22335,15 +23903,63 @@
         <v>0</v>
       </c>
       <c r="GR39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="GS39" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH39" t="n">
+        <v>6</v>
+      </c>
+      <c r="HI39" t="n">
         <v>15</v>
       </c>
-      <c r="GT39" t="n">
+      <c r="HJ39" t="n">
         <v>169</v>
       </c>
-      <c r="GU39" t="n">
+      <c r="HK39" t="n">
         <v>338</v>
       </c>
     </row>
@@ -22954,15 +24570,63 @@
         <v>13</v>
       </c>
       <c r="GR40" t="n">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="GS40" t="n">
+        <v>5</v>
+      </c>
+      <c r="GT40" t="n">
+        <v>89</v>
+      </c>
+      <c r="GU40" t="n">
+        <v>9</v>
+      </c>
+      <c r="GV40" t="n">
+        <v>5</v>
+      </c>
+      <c r="GW40" t="n">
+        <v>10</v>
+      </c>
+      <c r="GX40" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY40" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="HA40" t="n">
+        <v>15</v>
+      </c>
+      <c r="HB40" t="n">
+        <v>9</v>
+      </c>
+      <c r="HC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HD40" t="n">
+        <v>25</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>2</v>
+      </c>
+      <c r="HF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH40" t="n">
+        <v>563</v>
+      </c>
+      <c r="HI40" t="n">
         <v>312</v>
       </c>
-      <c r="GT40" t="n">
+      <c r="HJ40" t="n">
         <v>495</v>
       </c>
-      <c r="GU40" t="n">
+      <c r="HK40" t="n">
         <v>560</v>
       </c>
     </row>
@@ -23654,12 +25318,60 @@
         <v>0</v>
       </c>
       <c r="GS41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI41" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ41" t="n">
         <v>137</v>
       </c>
-      <c r="GU41" t="n">
+      <c r="HK41" t="n">
         <v>85</v>
       </c>
     </row>
@@ -24344,15 +26056,63 @@
         <v>0</v>
       </c>
       <c r="GR42" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="GS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC42" t="n">
+        <v>30</v>
+      </c>
+      <c r="HD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH42" t="n">
+        <v>240</v>
+      </c>
+      <c r="HI42" t="n">
         <v>809</v>
       </c>
-      <c r="GT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU42" t="n">
+      <c r="HJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -25043,15 +26803,63 @@
         <v>0</v>
       </c>
       <c r="GR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH43" t="n">
         <v>2</v>
       </c>
-      <c r="GS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT43" t="n">
+      <c r="HI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ43" t="n">
         <v>709</v>
       </c>
-      <c r="GU43" t="n">
+      <c r="HK43" t="n">
         <v>1036</v>
       </c>
     </row>
@@ -25970,19 +27778,67 @@
         <v>8</v>
       </c>
       <c r="GR44" t="n">
-        <v>254</v>
-      </c>
-      <c r="GS44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU44" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="GS44" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT44" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU44" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV44" t="n">
+        <v>9</v>
+      </c>
+      <c r="GW44" t="n">
+        <v>6</v>
+      </c>
+      <c r="GX44" t="n">
+        <v>10</v>
+      </c>
+      <c r="GY44" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ44" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA44" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB44" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC44" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD44" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF44" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG44" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH44" t="n">
+        <v>348</v>
+      </c>
+      <c r="HI44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK44" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -26903,19 +28759,67 @@
         <v>2</v>
       </c>
       <c r="GR45" t="n">
-        <v>109</v>
-      </c>
-      <c r="GS45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU45" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="GS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT45" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX45" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA45" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB45" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH45" t="n">
+        <v>132</v>
+      </c>
+      <c r="HI45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK45" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -27616,15 +29520,63 @@
         <v>8</v>
       </c>
       <c r="GR46" t="n">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="GS46" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT46" t="n">
+        <v>12</v>
+      </c>
+      <c r="GU46" t="n">
+        <v>11</v>
+      </c>
+      <c r="GV46" t="n">
+        <v>12</v>
+      </c>
+      <c r="GW46" t="n">
+        <v>3</v>
+      </c>
+      <c r="GX46" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY46" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ46" t="n">
+        <v>23</v>
+      </c>
+      <c r="HA46" t="n">
+        <v>6</v>
+      </c>
+      <c r="HB46" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC46" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD46" t="n">
+        <v>17</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>16</v>
+      </c>
+      <c r="HF46" t="n">
+        <v>11</v>
+      </c>
+      <c r="HG46" t="n">
+        <v>11</v>
+      </c>
+      <c r="HH46" t="n">
+        <v>473</v>
+      </c>
+      <c r="HI46" t="n">
         <v>448</v>
       </c>
-      <c r="GT46" t="n">
+      <c r="HJ46" t="n">
         <v>249</v>
       </c>
-      <c r="GU46" t="n">
+      <c r="HK46" t="n">
         <v>6</v>
       </c>
     </row>
@@ -28365,15 +30317,63 @@
         <v>0</v>
       </c>
       <c r="GR47" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="GS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW47" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY47" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH47" t="n">
+        <v>11</v>
+      </c>
+      <c r="HI47" t="n">
         <v>15</v>
       </c>
-      <c r="GT47" t="n">
+      <c r="HJ47" t="n">
         <v>151</v>
       </c>
-      <c r="GU47" t="inlineStr">
+      <c r="HK47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -29099,12 +31099,60 @@
         <v>0</v>
       </c>
       <c r="GS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY48" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH48" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI48" t="n">
         <v>3</v>
       </c>
-      <c r="GT48" t="n">
+      <c r="HJ48" t="n">
         <v>106</v>
       </c>
-      <c r="GU48" t="inlineStr">
+      <c r="HK48" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -29711,15 +31759,63 @@
         <v>1</v>
       </c>
       <c r="GR49" t="n">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="GS49" t="n">
+        <v>6</v>
+      </c>
+      <c r="GT49" t="n">
+        <v>6</v>
+      </c>
+      <c r="GU49" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV49" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW49" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX49" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY49" t="n">
+        <v>9</v>
+      </c>
+      <c r="GZ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA49" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HC49" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE49" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF49" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG49" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH49" t="n">
+        <v>291</v>
+      </c>
+      <c r="HI49" t="n">
         <v>319</v>
       </c>
-      <c r="GT49" t="n">
+      <c r="HJ49" t="n">
         <v>200</v>
       </c>
-      <c r="GU49" t="n">
+      <c r="HK49" t="n">
         <v>111</v>
       </c>
     </row>
@@ -30335,6 +32431,54 @@
       <c r="GU50" t="n">
         <v>0</v>
       </c>
+      <c r="GV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -30933,15 +33077,63 @@
         <v>137</v>
       </c>
       <c r="GR51" t="n">
-        <v>7305</v>
+        <v>379</v>
       </c>
       <c r="GS51" t="n">
+        <v>163</v>
+      </c>
+      <c r="GT51" t="n">
+        <v>222</v>
+      </c>
+      <c r="GU51" t="n">
+        <v>137</v>
+      </c>
+      <c r="GV51" t="n">
+        <v>517</v>
+      </c>
+      <c r="GW51" t="n">
+        <v>296</v>
+      </c>
+      <c r="GX51" t="n">
+        <v>126</v>
+      </c>
+      <c r="GY51" t="n">
+        <v>152</v>
+      </c>
+      <c r="GZ51" t="n">
+        <v>582</v>
+      </c>
+      <c r="HA51" t="n">
+        <v>203</v>
+      </c>
+      <c r="HB51" t="n">
+        <v>373</v>
+      </c>
+      <c r="HC51" t="n">
+        <v>380</v>
+      </c>
+      <c r="HD51" t="n">
+        <v>141</v>
+      </c>
+      <c r="HE51" t="n">
+        <v>142</v>
+      </c>
+      <c r="HF51" t="n">
+        <v>156</v>
+      </c>
+      <c r="HG51" t="n">
+        <v>156</v>
+      </c>
+      <c r="HH51" t="n">
+        <v>11118</v>
+      </c>
+      <c r="HI51" t="n">
         <v>26345</v>
       </c>
-      <c r="GT51" t="n">
+      <c r="HJ51" t="n">
         <v>24129</v>
       </c>
-      <c r="GU51" t="n">
+      <c r="HK51" t="n">
         <v>25228</v>
       </c>
     </row>
@@ -31151,6 +33343,22 @@
       <c r="GS52" t="inlineStr"/>
       <c r="GT52" t="inlineStr"/>
       <c r="GU52" t="inlineStr"/>
+      <c r="GV52" t="inlineStr"/>
+      <c r="GW52" t="inlineStr"/>
+      <c r="GX52" t="inlineStr"/>
+      <c r="GY52" t="inlineStr"/>
+      <c r="GZ52" t="inlineStr"/>
+      <c r="HA52" t="inlineStr"/>
+      <c r="HB52" t="inlineStr"/>
+      <c r="HC52" t="inlineStr"/>
+      <c r="HD52" t="inlineStr"/>
+      <c r="HE52" t="inlineStr"/>
+      <c r="HF52" t="inlineStr"/>
+      <c r="HG52" t="inlineStr"/>
+      <c r="HH52" t="inlineStr"/>
+      <c r="HI52" t="inlineStr"/>
+      <c r="HJ52" t="inlineStr"/>
+      <c r="HK52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -31358,6 +33566,22 @@
       <c r="GS53" t="inlineStr"/>
       <c r="GT53" t="inlineStr"/>
       <c r="GU53" t="inlineStr"/>
+      <c r="GV53" t="inlineStr"/>
+      <c r="GW53" t="inlineStr"/>
+      <c r="GX53" t="inlineStr"/>
+      <c r="GY53" t="inlineStr"/>
+      <c r="GZ53" t="inlineStr"/>
+      <c r="HA53" t="inlineStr"/>
+      <c r="HB53" t="inlineStr"/>
+      <c r="HC53" t="inlineStr"/>
+      <c r="HD53" t="inlineStr"/>
+      <c r="HE53" t="inlineStr"/>
+      <c r="HF53" t="inlineStr"/>
+      <c r="HG53" t="inlineStr"/>
+      <c r="HH53" t="inlineStr"/>
+      <c r="HI53" t="inlineStr"/>
+      <c r="HJ53" t="inlineStr"/>
+      <c r="HK53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -31569,6 +33793,22 @@
       <c r="GS54" t="inlineStr"/>
       <c r="GT54" t="inlineStr"/>
       <c r="GU54" t="inlineStr"/>
+      <c r="GV54" t="inlineStr"/>
+      <c r="GW54" t="inlineStr"/>
+      <c r="GX54" t="inlineStr"/>
+      <c r="GY54" t="inlineStr"/>
+      <c r="GZ54" t="inlineStr"/>
+      <c r="HA54" t="inlineStr"/>
+      <c r="HB54" t="inlineStr"/>
+      <c r="HC54" t="inlineStr"/>
+      <c r="HD54" t="inlineStr"/>
+      <c r="HE54" t="inlineStr"/>
+      <c r="HF54" t="inlineStr"/>
+      <c r="HG54" t="inlineStr"/>
+      <c r="HH54" t="inlineStr"/>
+      <c r="HI54" t="inlineStr"/>
+      <c r="HJ54" t="inlineStr"/>
+      <c r="HK54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -31776,6 +34016,22 @@
       <c r="GS55" t="inlineStr"/>
       <c r="GT55" t="inlineStr"/>
       <c r="GU55" t="inlineStr"/>
+      <c r="GV55" t="inlineStr"/>
+      <c r="GW55" t="inlineStr"/>
+      <c r="GX55" t="inlineStr"/>
+      <c r="GY55" t="inlineStr"/>
+      <c r="GZ55" t="inlineStr"/>
+      <c r="HA55" t="inlineStr"/>
+      <c r="HB55" t="inlineStr"/>
+      <c r="HC55" t="inlineStr"/>
+      <c r="HD55" t="inlineStr"/>
+      <c r="HE55" t="inlineStr"/>
+      <c r="HF55" t="inlineStr"/>
+      <c r="HG55" t="inlineStr"/>
+      <c r="HH55" t="inlineStr"/>
+      <c r="HI55" t="inlineStr"/>
+      <c r="HJ55" t="inlineStr"/>
+      <c r="HK55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -32001,6 +34257,22 @@
       <c r="GS56" t="inlineStr"/>
       <c r="GT56" t="inlineStr"/>
       <c r="GU56" t="inlineStr"/>
+      <c r="GV56" t="inlineStr"/>
+      <c r="GW56" t="inlineStr"/>
+      <c r="GX56" t="inlineStr"/>
+      <c r="GY56" t="inlineStr"/>
+      <c r="GZ56" t="inlineStr"/>
+      <c r="HA56" t="inlineStr"/>
+      <c r="HB56" t="inlineStr"/>
+      <c r="HC56" t="inlineStr"/>
+      <c r="HD56" t="inlineStr"/>
+      <c r="HE56" t="inlineStr"/>
+      <c r="HF56" t="inlineStr"/>
+      <c r="HG56" t="inlineStr"/>
+      <c r="HH56" t="inlineStr"/>
+      <c r="HI56" t="inlineStr"/>
+      <c r="HJ56" t="inlineStr"/>
+      <c r="HK56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -32976,30 +35248,110 @@
       </c>
       <c r="GP57" t="inlineStr">
         <is>
-          <t>36_2023</t>
+          <t>37_2023</t>
         </is>
       </c>
       <c r="GQ57" t="inlineStr">
         <is>
-          <t>36_2023</t>
+          <t>38_2023</t>
         </is>
       </c>
       <c r="GR57" t="inlineStr">
         <is>
+          <t>39_2023</t>
+        </is>
+      </c>
+      <c r="GS57" t="inlineStr">
+        <is>
+          <t>40_2023</t>
+        </is>
+      </c>
+      <c r="GT57" t="inlineStr">
+        <is>
+          <t>41_2023</t>
+        </is>
+      </c>
+      <c r="GU57" t="inlineStr">
+        <is>
+          <t>42_2023</t>
+        </is>
+      </c>
+      <c r="GV57" t="inlineStr">
+        <is>
+          <t>43_2023</t>
+        </is>
+      </c>
+      <c r="GW57" t="inlineStr">
+        <is>
+          <t>44_2023</t>
+        </is>
+      </c>
+      <c r="GX57" t="inlineStr">
+        <is>
+          <t>45_2023</t>
+        </is>
+      </c>
+      <c r="GY57" t="inlineStr">
+        <is>
+          <t>46_2023</t>
+        </is>
+      </c>
+      <c r="GZ57" t="inlineStr">
+        <is>
+          <t>47_2023</t>
+        </is>
+      </c>
+      <c r="HA57" t="inlineStr">
+        <is>
+          <t>48_2023</t>
+        </is>
+      </c>
+      <c r="HB57" t="inlineStr">
+        <is>
+          <t>49_2023</t>
+        </is>
+      </c>
+      <c r="HC57" t="inlineStr">
+        <is>
+          <t>50_2023</t>
+        </is>
+      </c>
+      <c r="HD57" t="inlineStr">
+        <is>
+          <t>51_2023</t>
+        </is>
+      </c>
+      <c r="HE57" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HF57" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HG57" t="inlineStr">
+        <is>
+          <t>52_2023</t>
+        </is>
+      </c>
+      <c r="HH57" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 2023 Total</t>
         </is>
       </c>
-      <c r="GS57" t="inlineStr">
+      <c r="HI57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2022 Total</t>
         </is>
       </c>
-      <c r="GT57" t="inlineStr">
+      <c r="HJ57" t="inlineStr">
         <is>
           <t xml:space="preserve"> 2021 Total</t>
         </is>
       </c>
-      <c r="GU57" t="inlineStr">
+      <c r="HK57" t="inlineStr">
         <is>
           <t>2020 Total</t>
         </is>
@@ -33920,19 +36272,67 @@
         <v>6</v>
       </c>
       <c r="GR58" t="n">
-        <v>330</v>
-      </c>
-      <c r="GS58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU58" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="GS58" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT58" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU58" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV58" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW58" t="n">
+        <v>4</v>
+      </c>
+      <c r="GX58" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY58" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA58" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB58" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC58" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH58" t="n">
+        <v>365</v>
+      </c>
+      <c r="HI58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK58" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -34855,17 +37255,65 @@
       <c r="GR59" t="n">
         <v>0</v>
       </c>
-      <c r="GS59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU59" t="inlineStr">
+      <c r="GS59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK59" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -35786,19 +38234,67 @@
         <v>0</v>
       </c>
       <c r="GR60" t="n">
-        <v>137</v>
-      </c>
-      <c r="GS60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU60" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="GS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV60" t="n">
+        <v>296</v>
+      </c>
+      <c r="GW60" t="n">
+        <v>21</v>
+      </c>
+      <c r="GX60" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY60" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ60" t="n">
+        <v>426</v>
+      </c>
+      <c r="HA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB60" t="n">
+        <v>201</v>
+      </c>
+      <c r="HC60" t="n">
+        <v>201</v>
+      </c>
+      <c r="HD60" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF60" t="n">
+        <v>21</v>
+      </c>
+      <c r="HG60" t="n">
+        <v>21</v>
+      </c>
+      <c r="HH60" t="n">
+        <v>1290</v>
+      </c>
+      <c r="HI60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK60" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -36719,19 +39215,67 @@
         <v>0</v>
       </c>
       <c r="GR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH61" t="n">
         <v>3</v>
       </c>
-      <c r="GS61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU61" t="inlineStr">
+      <c r="HI61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK61" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -37654,17 +40198,65 @@
       <c r="GR62" t="n">
         <v>0</v>
       </c>
-      <c r="GS62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU62" t="inlineStr">
+      <c r="GS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK62" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -38587,17 +41179,65 @@
       <c r="GR63" t="n">
         <v>0</v>
       </c>
-      <c r="GS63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU63" t="inlineStr">
+      <c r="GS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK63" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -39518,19 +42158,67 @@
         <v>0</v>
       </c>
       <c r="GR64" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU64" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="GS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH64" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK64" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -40451,19 +43139,67 @@
         <v>0</v>
       </c>
       <c r="GR65" t="n">
-        <v>60</v>
-      </c>
-      <c r="GS65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU65" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="GS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH65" t="n">
+        <v>69</v>
+      </c>
+      <c r="HI65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK65" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -41386,17 +44122,65 @@
       <c r="GR66" t="n">
         <v>0</v>
       </c>
-      <c r="GS66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU66" t="inlineStr">
+      <c r="GS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK66" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -42317,19 +45101,67 @@
         <v>0</v>
       </c>
       <c r="GR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU67" t="inlineStr">
+        <v>210</v>
+      </c>
+      <c r="GS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC67" t="n">
+        <v>30</v>
+      </c>
+      <c r="HD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH67" t="n">
+        <v>240</v>
+      </c>
+      <c r="HI67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK67" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -43252,17 +46084,65 @@
       <c r="GR68" t="n">
         <v>0</v>
       </c>
-      <c r="GS68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU68" t="inlineStr">
+      <c r="GS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK68" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -44183,19 +47063,67 @@
         <v>8</v>
       </c>
       <c r="GR69" t="n">
-        <v>254</v>
-      </c>
-      <c r="GS69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU69" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="GS69" t="n">
+        <v>13</v>
+      </c>
+      <c r="GT69" t="n">
+        <v>4</v>
+      </c>
+      <c r="GU69" t="n">
+        <v>5</v>
+      </c>
+      <c r="GV69" t="n">
+        <v>9</v>
+      </c>
+      <c r="GW69" t="n">
+        <v>6</v>
+      </c>
+      <c r="GX69" t="n">
+        <v>10</v>
+      </c>
+      <c r="GY69" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ69" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA69" t="n">
+        <v>12</v>
+      </c>
+      <c r="HB69" t="n">
+        <v>6</v>
+      </c>
+      <c r="HC69" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD69" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="HG69" t="n">
+        <v>6</v>
+      </c>
+      <c r="HH69" t="n">
+        <v>348</v>
+      </c>
+      <c r="HI69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK69" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -45116,19 +48044,67 @@
         <v>2</v>
       </c>
       <c r="GR70" t="n">
-        <v>107</v>
-      </c>
-      <c r="GS70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU70" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="GS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU70" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV70" t="n">
+        <v>2</v>
+      </c>
+      <c r="GW70" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX70" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY70" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="HA70" t="n">
+        <v>4</v>
+      </c>
+      <c r="HB70" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD70" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH70" t="n">
+        <v>129</v>
+      </c>
+      <c r="HI70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK70" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -46049,19 +49025,67 @@
         <v>5</v>
       </c>
       <c r="GR71" t="n">
-        <v>44</v>
-      </c>
-      <c r="GS71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU71" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="GS71" t="n">
+        <v>4</v>
+      </c>
+      <c r="GT71" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU71" t="n">
+        <v>2</v>
+      </c>
+      <c r="GV71" t="n">
+        <v>3</v>
+      </c>
+      <c r="GW71" t="n">
+        <v>2</v>
+      </c>
+      <c r="GX71" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA71" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC71" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD71" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF71" t="n">
+        <v>2</v>
+      </c>
+      <c r="HG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="HH71" t="n">
+        <v>63</v>
+      </c>
+      <c r="HI71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK71" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -46980,17 +50004,65 @@
       <c r="GR72" t="n">
         <v>0</v>
       </c>
-      <c r="GS72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU72" t="inlineStr">
+      <c r="GS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK72" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -47909,17 +50981,65 @@
       <c r="GR73" t="n">
         <v>0</v>
       </c>
-      <c r="GS73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU73" t="inlineStr">
+      <c r="GS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK73" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -48840,19 +51960,67 @@
         <v>0</v>
       </c>
       <c r="GR74" t="n">
-        <v>14</v>
-      </c>
-      <c r="GS74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU74" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="GS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF74" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG74" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH74" t="n">
+        <v>16</v>
+      </c>
+      <c r="HI74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK74" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -49775,17 +52943,65 @@
       <c r="GR75" t="n">
         <v>0</v>
       </c>
-      <c r="GS75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GT75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="GU75" t="inlineStr">
+      <c r="GS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HJ75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="HK75" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -50702,15 +53918,61 @@
         <v>21</v>
       </c>
       <c r="GR76" t="n">
-        <v>950</v>
+        <v>233</v>
       </c>
       <c r="GS76" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="GT76" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="GU76" t="n">
+        <v>10</v>
+      </c>
+      <c r="GV76" t="n">
+        <v>311</v>
+      </c>
+      <c r="GW76" t="n">
+        <v>35</v>
+      </c>
+      <c r="GX76" t="n">
+        <v>20</v>
+      </c>
+      <c r="GY76" t="n">
+        <v>22</v>
+      </c>
+      <c r="GZ76" t="n">
+        <v>438</v>
+      </c>
+      <c r="HA76" t="n">
+        <v>20</v>
+      </c>
+      <c r="HB76" t="n">
+        <v>211</v>
+      </c>
+      <c r="HC76" t="n">
+        <v>240</v>
+      </c>
+      <c r="HD76" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE76" t="inlineStr"/>
+      <c r="HF76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HG76" t="n">
+        <v>30</v>
+      </c>
+      <c r="HH76" t="n">
+        <v>2524</v>
+      </c>
+      <c r="HI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50920,6 +54182,22 @@
       <c r="GS77" t="inlineStr"/>
       <c r="GT77" t="inlineStr"/>
       <c r="GU77" t="inlineStr"/>
+      <c r="GV77" t="inlineStr"/>
+      <c r="GW77" t="inlineStr"/>
+      <c r="GX77" t="inlineStr"/>
+      <c r="GY77" t="inlineStr"/>
+      <c r="GZ77" t="inlineStr"/>
+      <c r="HA77" t="inlineStr"/>
+      <c r="HB77" t="inlineStr"/>
+      <c r="HC77" t="inlineStr"/>
+      <c r="HD77" t="inlineStr"/>
+      <c r="HE77" t="inlineStr"/>
+      <c r="HF77" t="inlineStr"/>
+      <c r="HG77" t="inlineStr"/>
+      <c r="HH77" t="inlineStr"/>
+      <c r="HI77" t="inlineStr"/>
+      <c r="HJ77" t="inlineStr"/>
+      <c r="HK77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -51127,6 +54405,22 @@
       <c r="GS78" t="inlineStr"/>
       <c r="GT78" t="inlineStr"/>
       <c r="GU78" t="inlineStr"/>
+      <c r="GV78" t="inlineStr"/>
+      <c r="GW78" t="inlineStr"/>
+      <c r="GX78" t="inlineStr"/>
+      <c r="GY78" t="inlineStr"/>
+      <c r="GZ78" t="inlineStr"/>
+      <c r="HA78" t="inlineStr"/>
+      <c r="HB78" t="inlineStr"/>
+      <c r="HC78" t="inlineStr"/>
+      <c r="HD78" t="inlineStr"/>
+      <c r="HE78" t="inlineStr"/>
+      <c r="HF78" t="inlineStr"/>
+      <c r="HG78" t="inlineStr"/>
+      <c r="HH78" t="inlineStr"/>
+      <c r="HI78" t="inlineStr"/>
+      <c r="HJ78" t="inlineStr"/>
+      <c r="HK78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -51338,6 +54632,22 @@
       <c r="GS79" t="inlineStr"/>
       <c r="GT79" t="inlineStr"/>
       <c r="GU79" t="inlineStr"/>
+      <c r="GV79" t="inlineStr"/>
+      <c r="GW79" t="inlineStr"/>
+      <c r="GX79" t="inlineStr"/>
+      <c r="GY79" t="inlineStr"/>
+      <c r="GZ79" t="inlineStr"/>
+      <c r="HA79" t="inlineStr"/>
+      <c r="HB79" t="inlineStr"/>
+      <c r="HC79" t="inlineStr"/>
+      <c r="HD79" t="inlineStr"/>
+      <c r="HE79" t="inlineStr"/>
+      <c r="HF79" t="inlineStr"/>
+      <c r="HG79" t="inlineStr"/>
+      <c r="HH79" t="inlineStr"/>
+      <c r="HI79" t="inlineStr"/>
+      <c r="HJ79" t="inlineStr"/>
+      <c r="HK79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -51545,6 +54855,22 @@
       <c r="GS80" t="inlineStr"/>
       <c r="GT80" t="inlineStr"/>
       <c r="GU80" t="inlineStr"/>
+      <c r="GV80" t="inlineStr"/>
+      <c r="GW80" t="inlineStr"/>
+      <c r="GX80" t="inlineStr"/>
+      <c r="GY80" t="inlineStr"/>
+      <c r="GZ80" t="inlineStr"/>
+      <c r="HA80" t="inlineStr"/>
+      <c r="HB80" t="inlineStr"/>
+      <c r="HC80" t="inlineStr"/>
+      <c r="HD80" t="inlineStr"/>
+      <c r="HE80" t="inlineStr"/>
+      <c r="HF80" t="inlineStr"/>
+      <c r="HG80" t="inlineStr"/>
+      <c r="HH80" t="inlineStr"/>
+      <c r="HI80" t="inlineStr"/>
+      <c r="HJ80" t="inlineStr"/>
+      <c r="HK80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -51768,6 +55094,22 @@
       <c r="GS81" t="inlineStr"/>
       <c r="GT81" t="inlineStr"/>
       <c r="GU81" t="inlineStr"/>
+      <c r="GV81" t="inlineStr"/>
+      <c r="GW81" t="inlineStr"/>
+      <c r="GX81" t="inlineStr"/>
+      <c r="GY81" t="inlineStr"/>
+      <c r="GZ81" t="inlineStr"/>
+      <c r="HA81" t="inlineStr"/>
+      <c r="HB81" t="inlineStr"/>
+      <c r="HC81" t="inlineStr"/>
+      <c r="HD81" t="inlineStr"/>
+      <c r="HE81" t="inlineStr"/>
+      <c r="HF81" t="inlineStr"/>
+      <c r="HG81" t="inlineStr"/>
+      <c r="HH81" t="inlineStr"/>
+      <c r="HI81" t="inlineStr"/>
+      <c r="HJ81" t="inlineStr"/>
+      <c r="HK81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -52405,6 +55747,22 @@
       <c r="GS82" t="inlineStr"/>
       <c r="GT82" t="inlineStr"/>
       <c r="GU82" t="inlineStr"/>
+      <c r="GV82" t="inlineStr"/>
+      <c r="GW82" t="inlineStr"/>
+      <c r="GX82" t="inlineStr"/>
+      <c r="GY82" t="inlineStr"/>
+      <c r="GZ82" t="inlineStr"/>
+      <c r="HA82" t="inlineStr"/>
+      <c r="HB82" t="inlineStr"/>
+      <c r="HC82" t="inlineStr"/>
+      <c r="HD82" t="inlineStr"/>
+      <c r="HE82" t="inlineStr"/>
+      <c r="HF82" t="inlineStr"/>
+      <c r="HG82" t="inlineStr"/>
+      <c r="HH82" t="inlineStr"/>
+      <c r="HI82" t="inlineStr"/>
+      <c r="HJ82" t="inlineStr"/>
+      <c r="HK82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -53162,6 +56520,22 @@
       <c r="GS83" t="inlineStr"/>
       <c r="GT83" t="inlineStr"/>
       <c r="GU83" t="inlineStr"/>
+      <c r="GV83" t="inlineStr"/>
+      <c r="GW83" t="inlineStr"/>
+      <c r="GX83" t="inlineStr"/>
+      <c r="GY83" t="inlineStr"/>
+      <c r="GZ83" t="inlineStr"/>
+      <c r="HA83" t="inlineStr"/>
+      <c r="HB83" t="inlineStr"/>
+      <c r="HC83" t="inlineStr"/>
+      <c r="HD83" t="inlineStr"/>
+      <c r="HE83" t="inlineStr"/>
+      <c r="HF83" t="inlineStr"/>
+      <c r="HG83" t="inlineStr"/>
+      <c r="HH83" t="inlineStr"/>
+      <c r="HI83" t="inlineStr"/>
+      <c r="HJ83" t="inlineStr"/>
+      <c r="HK83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -53919,6 +57293,22 @@
       <c r="GS84" t="inlineStr"/>
       <c r="GT84" t="inlineStr"/>
       <c r="GU84" t="inlineStr"/>
+      <c r="GV84" t="inlineStr"/>
+      <c r="GW84" t="inlineStr"/>
+      <c r="GX84" t="inlineStr"/>
+      <c r="GY84" t="inlineStr"/>
+      <c r="GZ84" t="inlineStr"/>
+      <c r="HA84" t="inlineStr"/>
+      <c r="HB84" t="inlineStr"/>
+      <c r="HC84" t="inlineStr"/>
+      <c r="HD84" t="inlineStr"/>
+      <c r="HE84" t="inlineStr"/>
+      <c r="HF84" t="inlineStr"/>
+      <c r="HG84" t="inlineStr"/>
+      <c r="HH84" t="inlineStr"/>
+      <c r="HI84" t="inlineStr"/>
+      <c r="HJ84" t="inlineStr"/>
+      <c r="HK84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -54676,6 +58066,22 @@
       <c r="GS85" t="inlineStr"/>
       <c r="GT85" t="inlineStr"/>
       <c r="GU85" t="inlineStr"/>
+      <c r="GV85" t="inlineStr"/>
+      <c r="GW85" t="inlineStr"/>
+      <c r="GX85" t="inlineStr"/>
+      <c r="GY85" t="inlineStr"/>
+      <c r="GZ85" t="inlineStr"/>
+      <c r="HA85" t="inlineStr"/>
+      <c r="HB85" t="inlineStr"/>
+      <c r="HC85" t="inlineStr"/>
+      <c r="HD85" t="inlineStr"/>
+      <c r="HE85" t="inlineStr"/>
+      <c r="HF85" t="inlineStr"/>
+      <c r="HG85" t="inlineStr"/>
+      <c r="HH85" t="inlineStr"/>
+      <c r="HI85" t="inlineStr"/>
+      <c r="HJ85" t="inlineStr"/>
+      <c r="HK85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
